--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Nid1-Itgav.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Nid1-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>85.60159858167491</v>
+        <v>85.70480866666666</v>
       </c>
       <c r="H2">
-        <v>85.60159858167491</v>
+        <v>257.114426</v>
       </c>
       <c r="I2">
-        <v>0.2433399268003892</v>
+        <v>0.2432597358378337</v>
       </c>
       <c r="J2">
-        <v>0.2433399268003892</v>
+        <v>0.2432597358378336</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N2">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q2">
-        <v>1450.42461493458</v>
+        <v>1575.4666741044</v>
       </c>
       <c r="R2">
-        <v>1450.42461493458</v>
+        <v>14179.2000669396</v>
       </c>
       <c r="S2">
-        <v>0.0146457497556519</v>
+        <v>0.01552035690633257</v>
       </c>
       <c r="T2">
-        <v>0.0146457497556519</v>
+        <v>0.01552035690633256</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>85.60159858167491</v>
+        <v>85.70480866666666</v>
       </c>
       <c r="H3">
-        <v>85.60159858167491</v>
+        <v>257.114426</v>
       </c>
       <c r="I3">
-        <v>0.2433399268003892</v>
+        <v>0.2432597358378337</v>
       </c>
       <c r="J3">
-        <v>0.2433399268003892</v>
+        <v>0.2432597358378336</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q3">
-        <v>7032.690412680111</v>
+        <v>7082.931499432931</v>
       </c>
       <c r="R3">
-        <v>7032.690412680111</v>
+        <v>63746.38349489638</v>
       </c>
       <c r="S3">
-        <v>0.07101301428046355</v>
+        <v>0.06977591250973027</v>
       </c>
       <c r="T3">
-        <v>0.07101301428046355</v>
+        <v>0.06977591250973027</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>85.60159858167491</v>
+        <v>85.70480866666666</v>
       </c>
       <c r="H4">
-        <v>85.60159858167491</v>
+        <v>257.114426</v>
       </c>
       <c r="I4">
-        <v>0.2433399268003892</v>
+        <v>0.2432597358378337</v>
       </c>
       <c r="J4">
-        <v>0.2433399268003892</v>
+        <v>0.2432597358378336</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N4">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q4">
-        <v>7783.984463509793</v>
+        <v>7820.649209959304</v>
       </c>
       <c r="R4">
-        <v>7783.984463509793</v>
+        <v>70385.84288963374</v>
       </c>
       <c r="S4">
-        <v>0.07859925113004836</v>
+        <v>0.0770433732257753</v>
       </c>
       <c r="T4">
-        <v>0.07859925113004836</v>
+        <v>0.07704337322577529</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>85.60159858167491</v>
+        <v>85.70480866666666</v>
       </c>
       <c r="H5">
-        <v>85.60159858167491</v>
+        <v>257.114426</v>
       </c>
       <c r="I5">
-        <v>0.2433399268003892</v>
+        <v>0.2432597358378337</v>
       </c>
       <c r="J5">
-        <v>0.2433399268003892</v>
+        <v>0.2432597358378336</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N5">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q5">
-        <v>6702.166129105199</v>
+        <v>6966.811539720482</v>
       </c>
       <c r="R5">
-        <v>6702.166129105199</v>
+        <v>62701.30385748434</v>
       </c>
       <c r="S5">
-        <v>0.06767552545439132</v>
+        <v>0.06863198274700731</v>
       </c>
       <c r="T5">
-        <v>0.06767552545439132</v>
+        <v>0.06863198274700731</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>85.60159858167491</v>
+        <v>85.70480866666666</v>
       </c>
       <c r="H6">
-        <v>85.60159858167491</v>
+        <v>257.114426</v>
       </c>
       <c r="I6">
-        <v>0.2433399268003892</v>
+        <v>0.2432597358378337</v>
       </c>
       <c r="J6">
-        <v>0.2433399268003892</v>
+        <v>0.2432597358378336</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N6">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q6">
-        <v>1129.618050198937</v>
+        <v>1247.362326583871</v>
       </c>
       <c r="R6">
-        <v>1129.618050198937</v>
+        <v>11226.26093925483</v>
       </c>
       <c r="S6">
-        <v>0.01140638617983414</v>
+        <v>0.01228811044898824</v>
       </c>
       <c r="T6">
-        <v>0.01140638617983414</v>
+        <v>0.01228811044898824</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>254.799415439154</v>
+        <v>254.9145913333333</v>
       </c>
       <c r="H7">
-        <v>254.799415439154</v>
+        <v>764.743774</v>
       </c>
       <c r="I7">
-        <v>0.7243190796558198</v>
+        <v>0.7235353198224201</v>
       </c>
       <c r="J7">
-        <v>0.7243190796558198</v>
+        <v>0.7235353198224201</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N7">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q7">
-        <v>4317.294888731271</v>
+        <v>4685.961612149399</v>
       </c>
       <c r="R7">
-        <v>4317.294888731271</v>
+        <v>42173.6545093446</v>
       </c>
       <c r="S7">
-        <v>0.04359414471503928</v>
+        <v>0.04616270078278584</v>
       </c>
       <c r="T7">
-        <v>0.04359414471503928</v>
+        <v>0.04616270078278584</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>254.799415439154</v>
+        <v>254.9145913333333</v>
       </c>
       <c r="H8">
-        <v>254.799415439154</v>
+        <v>764.743774</v>
       </c>
       <c r="I8">
-        <v>0.7243190796558198</v>
+        <v>0.7235353198224201</v>
       </c>
       <c r="J8">
-        <v>0.7243190796558198</v>
+        <v>0.7235353198224201</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q8">
-        <v>20933.31708526107</v>
+        <v>21066.99281766406</v>
       </c>
       <c r="R8">
-        <v>20933.31708526107</v>
+        <v>189602.9353589766</v>
       </c>
       <c r="S8">
-        <v>0.2113754278779074</v>
+        <v>0.2075367590108886</v>
       </c>
       <c r="T8">
-        <v>0.2113754278779074</v>
+        <v>0.2075367590108886</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>254.799415439154</v>
+        <v>254.9145913333333</v>
       </c>
       <c r="H9">
-        <v>254.799415439154</v>
+        <v>764.743774</v>
       </c>
       <c r="I9">
-        <v>0.7243190796558198</v>
+        <v>0.7235353198224201</v>
       </c>
       <c r="J9">
-        <v>0.7243190796558198</v>
+        <v>0.7235353198224201</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N9">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q9">
-        <v>23169.59874525447</v>
+        <v>23261.21052404269</v>
       </c>
       <c r="R9">
-        <v>23169.59874525447</v>
+        <v>209350.8947163843</v>
       </c>
       <c r="S9">
-        <v>0.2339564163954627</v>
+        <v>0.2291526030607476</v>
       </c>
       <c r="T9">
-        <v>0.2339564163954627</v>
+        <v>0.2291526030607476</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>254.799415439154</v>
+        <v>254.9145913333333</v>
       </c>
       <c r="H10">
-        <v>254.799415439154</v>
+        <v>764.743774</v>
       </c>
       <c r="I10">
-        <v>0.7243190796558198</v>
+        <v>0.7235353198224201</v>
       </c>
       <c r="J10">
-        <v>0.7243190796558198</v>
+        <v>0.7235353198224201</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N10">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q10">
-        <v>19949.48739470945</v>
+        <v>20721.61345638612</v>
       </c>
       <c r="R10">
-        <v>19949.48739470945</v>
+        <v>186494.5211074751</v>
       </c>
       <c r="S10">
-        <v>0.201441148425094</v>
+        <v>0.2041343316265314</v>
       </c>
       <c r="T10">
-        <v>0.201441148425094</v>
+        <v>0.2041343316265314</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>254.799415439154</v>
+        <v>254.9145913333333</v>
       </c>
       <c r="H11">
-        <v>254.799415439154</v>
+        <v>764.743774</v>
       </c>
       <c r="I11">
-        <v>0.7243190796558198</v>
+        <v>0.7235353198224201</v>
       </c>
       <c r="J11">
-        <v>0.7243190796558198</v>
+        <v>0.7235353198224201</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N11">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O11">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P11">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q11">
-        <v>3362.390698645458</v>
+        <v>3710.07021277433</v>
       </c>
       <c r="R11">
-        <v>3362.390698645458</v>
+        <v>33390.63191496897</v>
       </c>
       <c r="S11">
-        <v>0.03395194224231644</v>
+        <v>0.03654892534146684</v>
       </c>
       <c r="T11">
-        <v>0.03395194224231644</v>
+        <v>0.03654892534146684</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>11.376845483064</v>
+        <v>0.01628533333333333</v>
       </c>
       <c r="H12">
-        <v>11.376845483064</v>
+        <v>0.048856</v>
       </c>
       <c r="I12">
-        <v>0.03234099354379095</v>
+        <v>4.622337936842642E-05</v>
       </c>
       <c r="J12">
-        <v>0.03234099354379095</v>
+        <v>4.622337936842642E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N12">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O12">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P12">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q12">
-        <v>192.768090810816</v>
+        <v>0.2993647654373333</v>
       </c>
       <c r="R12">
-        <v>192.768090810816</v>
+        <v>2.694282888936</v>
       </c>
       <c r="S12">
-        <v>0.001946487387086525</v>
+        <v>2.949124904472625E-06</v>
       </c>
       <c r="T12">
-        <v>0.001946487387086525</v>
+        <v>2.949124904472625E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>11.376845483064</v>
+        <v>0.01628533333333333</v>
       </c>
       <c r="H13">
-        <v>11.376845483064</v>
+        <v>0.048856</v>
       </c>
       <c r="I13">
-        <v>0.03234099354379095</v>
+        <v>4.622337936842642E-05</v>
       </c>
       <c r="J13">
-        <v>0.03234099354379095</v>
+        <v>4.622337936842642E-05</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P13">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q13">
-        <v>934.6768457711404</v>
+        <v>1.345874312537777</v>
       </c>
       <c r="R13">
-        <v>934.6768457711404</v>
+        <v>12.11286881284</v>
       </c>
       <c r="S13">
-        <v>0.009437955647342344</v>
+        <v>1.325857920385759E-05</v>
       </c>
       <c r="T13">
-        <v>0.009437955647342344</v>
+        <v>1.325857920385759E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>11.376845483064</v>
+        <v>0.01628533333333333</v>
       </c>
       <c r="H14">
-        <v>11.376845483064</v>
+        <v>0.048856</v>
       </c>
       <c r="I14">
-        <v>0.03234099354379095</v>
+        <v>4.622337936842642E-05</v>
       </c>
       <c r="J14">
-        <v>0.03234099354379095</v>
+        <v>4.622337936842642E-05</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N14">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O14">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P14">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q14">
-        <v>1034.527274621242</v>
+        <v>1.486052897715555</v>
       </c>
       <c r="R14">
-        <v>1034.527274621242</v>
+        <v>13.37447607944</v>
       </c>
       <c r="S14">
-        <v>0.01044620135613368</v>
+        <v>1.46395171242491E-05</v>
       </c>
       <c r="T14">
-        <v>0.01044620135613368</v>
+        <v>1.46395171242491E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>11.376845483064</v>
+        <v>0.01628533333333333</v>
       </c>
       <c r="H15">
-        <v>11.376845483064</v>
+        <v>0.048856</v>
       </c>
       <c r="I15">
-        <v>0.03234099354379095</v>
+        <v>4.622337936842642E-05</v>
       </c>
       <c r="J15">
-        <v>0.03234099354379095</v>
+        <v>4.622337936842642E-05</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N15">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O15">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P15">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q15">
-        <v>890.7486509133729</v>
+        <v>1.323809596683555</v>
       </c>
       <c r="R15">
-        <v>890.7486509133729</v>
+        <v>11.914286370152</v>
       </c>
       <c r="S15">
-        <v>0.008994388058596346</v>
+        <v>1.304121359992375E-05</v>
       </c>
       <c r="T15">
-        <v>0.008994388058596346</v>
+        <v>1.304121359992375E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01628533333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.048856</v>
+      </c>
+      <c r="I16">
+        <v>4.622337936842642E-05</v>
+      </c>
+      <c r="J16">
+        <v>4.622337936842642E-05</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.55416966666667</v>
+      </c>
+      <c r="N16">
+        <v>43.662509</v>
+      </c>
+      <c r="O16">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="P16">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="Q16">
+        <v>0.2370195044115555</v>
+      </c>
+      <c r="R16">
+        <v>2.133175539704</v>
+      </c>
+      <c r="S16">
+        <v>2.334944535923353E-06</v>
+      </c>
+      <c r="T16">
+        <v>2.334944535923353E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1141583333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.342475</v>
+      </c>
+      <c r="I17">
+        <v>0.0003240206289749845</v>
+      </c>
+      <c r="J17">
+        <v>0.0003240206289749844</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>18.382477</v>
+      </c>
+      <c r="N17">
+        <v>55.147431</v>
+      </c>
+      <c r="O17">
+        <v>0.06380158579420245</v>
+      </c>
+      <c r="P17">
+        <v>0.06380158579420243</v>
+      </c>
+      <c r="Q17">
+        <v>2.098512936858334</v>
+      </c>
+      <c r="R17">
+        <v>18.886616431725</v>
+      </c>
+      <c r="S17">
+        <v>2.067302995863891E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.06730299586389E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1141583333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.342475</v>
+      </c>
+      <c r="I18">
+        <v>0.0003240206289749845</v>
+      </c>
+      <c r="J18">
+        <v>0.0003240206289749844</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>82.64333833333332</v>
+      </c>
+      <c r="N18">
+        <v>247.930015</v>
+      </c>
+      <c r="O18">
+        <v>0.2868370808239535</v>
+      </c>
+      <c r="P18">
+        <v>0.2868370808239535</v>
+      </c>
+      <c r="Q18">
+        <v>9.43442576523611</v>
+      </c>
+      <c r="R18">
+        <v>84.90983188712499</v>
+      </c>
+      <c r="S18">
+        <v>9.294113134192586E-05</v>
+      </c>
+      <c r="T18">
+        <v>9.294113134192585E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1141583333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.342475</v>
+      </c>
+      <c r="I19">
+        <v>0.0003240206289749845</v>
+      </c>
+      <c r="J19">
+        <v>0.0003240206289749844</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>91.25099666666667</v>
+      </c>
+      <c r="N19">
+        <v>273.75299</v>
+      </c>
+      <c r="O19">
+        <v>0.3167123936907314</v>
+      </c>
+      <c r="P19">
+        <v>0.3167123936907314</v>
+      </c>
+      <c r="Q19">
+        <v>10.41706169447222</v>
+      </c>
+      <c r="R19">
+        <v>93.75355525025002</v>
+      </c>
+      <c r="S19">
+        <v>0.0001026213490078437</v>
+      </c>
+      <c r="T19">
+        <v>0.0001026213490078437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1141583333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.342475</v>
+      </c>
+      <c r="I20">
+        <v>0.0003240206289749845</v>
+      </c>
+      <c r="J20">
+        <v>0.0003240206289749844</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>81.28845566666666</v>
+      </c>
+      <c r="N20">
+        <v>243.865367</v>
+      </c>
+      <c r="O20">
+        <v>0.2821345773094157</v>
+      </c>
+      <c r="P20">
+        <v>0.2821345773094157</v>
+      </c>
+      <c r="Q20">
+        <v>9.279754618147223</v>
+      </c>
+      <c r="R20">
+        <v>83.51779156332501</v>
+      </c>
+      <c r="S20">
+        <v>9.141742319538823E-05</v>
+      </c>
+      <c r="T20">
+        <v>9.141742319538822E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1141583333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.342475</v>
+      </c>
+      <c r="I21">
+        <v>0.0003240206289749845</v>
+      </c>
+      <c r="J21">
+        <v>0.0003240206289749844</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>14.55416966666667</v>
+      </c>
+      <c r="N21">
+        <v>43.662509</v>
+      </c>
+      <c r="O21">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="P21">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="Q21">
+        <v>1.661479752197222</v>
+      </c>
+      <c r="R21">
+        <v>14.953317769775</v>
+      </c>
+      <c r="S21">
+        <v>1.636769547118779E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.636769547118778E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>11.56825933333333</v>
+      </c>
+      <c r="H22">
+        <v>34.704778</v>
+      </c>
+      <c r="I22">
+        <v>0.03283470033140288</v>
+      </c>
+      <c r="J22">
+        <v>0.03283470033140288</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>18.382477</v>
+      </c>
+      <c r="N22">
+        <v>55.147431</v>
+      </c>
+      <c r="O22">
+        <v>0.06380158579420245</v>
+      </c>
+      <c r="P22">
+        <v>0.06380158579420243</v>
+      </c>
+      <c r="Q22">
+        <v>212.6532611250353</v>
+      </c>
+      <c r="R22">
+        <v>1913.879350125318</v>
+      </c>
+      <c r="S22">
+        <v>0.002094905950220928</v>
+      </c>
+      <c r="T22">
+        <v>0.002094905950220928</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>11.56825933333333</v>
+      </c>
+      <c r="H23">
+        <v>34.704778</v>
+      </c>
+      <c r="I23">
+        <v>0.03283470033140288</v>
+      </c>
+      <c r="J23">
+        <v>0.03283470033140288</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>82.64333833333332</v>
+      </c>
+      <c r="N23">
+        <v>247.930015</v>
+      </c>
+      <c r="O23">
+        <v>0.2868370808239535</v>
+      </c>
+      <c r="P23">
+        <v>0.2868370808239535</v>
+      </c>
+      <c r="Q23">
+        <v>956.0395700124075</v>
+      </c>
+      <c r="R23">
+        <v>8604.356130111668</v>
+      </c>
+      <c r="S23">
+        <v>0.0094182095927889</v>
+      </c>
+      <c r="T23">
+        <v>0.0094182095927889</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>11.376845483064</v>
-      </c>
-      <c r="H16">
-        <v>11.376845483064</v>
-      </c>
-      <c r="I16">
-        <v>0.03234099354379095</v>
-      </c>
-      <c r="J16">
-        <v>0.03234099354379095</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>13.1962261092722</v>
-      </c>
-      <c r="N16">
-        <v>13.1962261092722</v>
-      </c>
-      <c r="O16">
-        <v>0.04687428951678264</v>
-      </c>
-      <c r="P16">
-        <v>0.04687428951678264</v>
-      </c>
-      <c r="Q16">
-        <v>150.1314254047647</v>
-      </c>
-      <c r="R16">
-        <v>150.1314254047647</v>
-      </c>
-      <c r="S16">
-        <v>0.001515961094632055</v>
-      </c>
-      <c r="T16">
-        <v>0.001515961094632055</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>11.56825933333333</v>
+      </c>
+      <c r="H24">
+        <v>34.704778</v>
+      </c>
+      <c r="I24">
+        <v>0.03283470033140288</v>
+      </c>
+      <c r="J24">
+        <v>0.03283470033140288</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>91.25099666666667</v>
+      </c>
+      <c r="N24">
+        <v>273.75299</v>
+      </c>
+      <c r="O24">
+        <v>0.3167123936907314</v>
+      </c>
+      <c r="P24">
+        <v>0.3167123936907314</v>
+      </c>
+      <c r="Q24">
+        <v>1055.615193865135</v>
+      </c>
+      <c r="R24">
+        <v>9500.536744786219</v>
+      </c>
+      <c r="S24">
+        <v>0.01039915653807646</v>
+      </c>
+      <c r="T24">
+        <v>0.01039915653807646</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>11.56825933333333</v>
+      </c>
+      <c r="H25">
+        <v>34.704778</v>
+      </c>
+      <c r="I25">
+        <v>0.03283470033140288</v>
+      </c>
+      <c r="J25">
+        <v>0.03283470033140288</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>81.28845566666666</v>
+      </c>
+      <c r="N25">
+        <v>243.865367</v>
+      </c>
+      <c r="O25">
+        <v>0.2821345773094157</v>
+      </c>
+      <c r="P25">
+        <v>0.2821345773094157</v>
+      </c>
+      <c r="Q25">
+        <v>940.3659359581694</v>
+      </c>
+      <c r="R25">
+        <v>8463.293423623525</v>
+      </c>
+      <c r="S25">
+        <v>0.009263804299081682</v>
+      </c>
+      <c r="T25">
+        <v>0.009263804299081682</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>11.56825933333333</v>
+      </c>
+      <c r="H26">
+        <v>34.704778</v>
+      </c>
+      <c r="I26">
+        <v>0.03283470033140288</v>
+      </c>
+      <c r="J26">
+        <v>0.03283470033140288</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>14.55416966666667</v>
+      </c>
+      <c r="N26">
+        <v>43.662509</v>
+      </c>
+      <c r="O26">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="P26">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="Q26">
+        <v>168.3664090853335</v>
+      </c>
+      <c r="R26">
+        <v>1515.297681768002</v>
+      </c>
+      <c r="S26">
+        <v>0.001658623951234915</v>
+      </c>
+      <c r="T26">
+        <v>0.001658623951234915</v>
       </c>
     </row>
   </sheetData>
